--- a/runTimeEEV.xlsx
+++ b/runTimeEEV.xlsx
@@ -2565,7 +2565,7 @@
         <v>0.3059999942779541</v>
       </c>
       <c r="C2">
-        <v>752.776602714907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2576,7 +2576,7 @@
         <v>0.2060000896453857</v>
       </c>
       <c r="C3">
-        <v>994.676926498739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2587,7 +2587,7 @@
         <v>0.1570000648498535</v>
       </c>
       <c r="C4">
-        <v>2082.107854186911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2598,7 +2598,7 @@
         <v>0.3159999847412109</v>
       </c>
       <c r="C5">
-        <v>1766.190182996469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2609,7 +2609,7 @@
         <v>0.2699999809265137</v>
       </c>
       <c r="C6">
-        <v>1362.334638412742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2675,7 +2675,7 @@
         <v>0.03800010681152344</v>
       </c>
       <c r="C12">
-        <v>22.77660271490709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2686,7 +2686,7 @@
         <v>0.06599998474121094</v>
       </c>
       <c r="C13">
-        <v>383.6464527964957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2697,7 +2697,7 @@
         <v>0.1480000019073486</v>
       </c>
       <c r="C14">
-        <v>1082.107854186911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2708,7 +2708,7 @@
         <v>0.2860000133514404</v>
       </c>
       <c r="C15">
-        <v>766.190182996469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2719,7 +2719,7 @@
         <v>0.05800008773803711</v>
       </c>
       <c r="C16">
-        <v>362.3346384127427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2785,7 +2785,7 @@
         <v>0.04200005531311035</v>
       </c>
       <c r="C22">
-        <v>21.91705383413559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2796,7 +2796,7 @@
         <v>0.05000019073486328</v>
       </c>
       <c r="C23">
-        <v>278.6464527964958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2807,7 +2807,7 @@
         <v>0.06699991226196289</v>
       </c>
       <c r="C24">
-        <v>279.7290434521012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2818,7 +2818,7 @@
         <v>0.06599998474121094</v>
       </c>
       <c r="C25">
-        <v>151.1901829964691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2829,7 +2829,7 @@
         <v>0.05299997329711914</v>
       </c>
       <c r="C26">
-        <v>278.5120426959607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2895,7 +2895,7 @@
         <v>0.4670000076293945</v>
       </c>
       <c r="C32">
-        <v>752.776602714907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2906,7 +2906,7 @@
         <v>0.5240001678466797</v>
       </c>
       <c r="C33">
-        <v>994.6769264987392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2917,7 +2917,7 @@
         <v>0.7259998321533203</v>
       </c>
       <c r="C34">
-        <v>2075.837197858936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2928,7 +2928,7 @@
         <v>0.6559998989105225</v>
       </c>
       <c r="C35">
-        <v>1652.802001003381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2939,7 +2939,7 @@
         <v>0.5840001106262207</v>
       </c>
       <c r="C36">
-        <v>1362.334638412743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2950,7 +2950,7 @@
         <v>0.3410000801086426</v>
       </c>
       <c r="C37">
-        <v>910.6922511118804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2961,7 +2961,7 @@
         <v>0.4600000381469727</v>
       </c>
       <c r="C38">
-        <v>1139.918213063838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>1.122999906539917</v>
       </c>
       <c r="C39">
-        <v>2098.367291521216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2983,7 +2983,7 @@
         <v>0.875</v>
       </c>
       <c r="C40">
-        <v>1661.380388819194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2994,7 +2994,7 @@
         <v>0.8050000667572021</v>
       </c>
       <c r="C41">
-        <v>1375.878198169817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3005,7 +3005,7 @@
         <v>0.2200000286102295</v>
       </c>
       <c r="C42">
-        <v>22.77660271490709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3016,7 +3016,7 @@
         <v>0.246999979019165</v>
       </c>
       <c r="C43">
-        <v>159.6769264987391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3027,7 +3027,7 @@
         <v>0.6470000743865967</v>
       </c>
       <c r="C44">
-        <v>1075.837197858936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3038,7 +3038,7 @@
         <v>0.4619998931884766</v>
       </c>
       <c r="C45">
-        <v>652.8020010033806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3049,7 +3049,7 @@
         <v>0.312000036239624</v>
       </c>
       <c r="C46">
-        <v>362.3346384127427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3060,7 +3060,7 @@
         <v>0.1540000438690186</v>
       </c>
       <c r="C47">
-        <v>178.5571398765395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3071,7 +3071,7 @@
         <v>0.1269998550415039</v>
       </c>
       <c r="C48">
-        <v>292.8095716206935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3082,7 +3082,7 @@
         <v>0.4059998989105225</v>
       </c>
       <c r="C49">
-        <v>1098.367291521216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3093,7 +3093,7 @@
         <v>0.4879999160766602</v>
       </c>
       <c r="C50">
-        <v>661.380388819194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3104,7 +3104,7 @@
         <v>0.3340001106262207</v>
       </c>
       <c r="C51">
-        <v>375.8781981698167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3115,7 +3115,7 @@
         <v>0.1800000667572021</v>
       </c>
       <c r="C52">
-        <v>19.8873981872152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3126,7 +3126,7 @@
         <v>0.08100008964538574</v>
       </c>
       <c r="C53">
-        <v>28.64645279649577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3137,7 +3137,7 @@
         <v>0.1340000629425049</v>
       </c>
       <c r="C54">
-        <v>82.10785418691138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3148,7 +3148,7 @@
         <v>0.2069997787475586</v>
       </c>
       <c r="C55">
-        <v>26.1901829964691</v>
+        <v>1.871877210270985E-05</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3159,7 +3159,7 @@
         <v>0.2150001525878906</v>
       </c>
       <c r="C56">
-        <v>32.30303952959039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3170,7 +3170,7 @@
         <v>0.1579999923706055</v>
       </c>
       <c r="C57">
-        <v>175.4410498000232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3181,7 +3181,7 @@
         <v>0.1549999713897705</v>
       </c>
       <c r="C58">
-        <v>292.8095716206935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3192,7 +3192,7 @@
         <v>0.25</v>
       </c>
       <c r="C59">
-        <v>431.4808965863049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3203,7 +3203,7 @@
         <v>0.1519999504089355</v>
       </c>
       <c r="C60">
-        <v>42.90755370385152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3214,7 +3214,7 @@
         <v>0.1330001354217529</v>
       </c>
       <c r="C61">
-        <v>41.1743708687662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3225,7 +3225,7 @@
         <v>0.7080001831054688</v>
       </c>
       <c r="C62">
-        <v>752.7766027149071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3236,7 +3236,7 @@
         <v>0.679999828338623</v>
       </c>
       <c r="C63">
-        <v>994.6769264987392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3247,7 +3247,7 @@
         <v>1.013999938964844</v>
       </c>
       <c r="C64">
-        <v>2075.837197858936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3258,7 +3258,7 @@
         <v>0.7709999084472656</v>
       </c>
       <c r="C65">
-        <v>1652.802001003381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3269,7 +3269,7 @@
         <v>0.814000129699707</v>
       </c>
       <c r="C66">
-        <v>1362.334638412743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3280,7 +3280,7 @@
         <v>0.4830000400543213</v>
       </c>
       <c r="C67">
-        <v>785.6922511118804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3291,7 +3291,7 @@
         <v>0.624000072479248</v>
       </c>
       <c r="C68">
-        <v>1014.918213063838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3302,7 +3302,7 @@
         <v>0.7640001773834229</v>
       </c>
       <c r="C69">
-        <v>2098.367291521216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3313,7 +3313,7 @@
         <v>0.7009999752044678</v>
       </c>
       <c r="C70">
-        <v>1661.380388819194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3324,7 +3324,7 @@
         <v>0.9210000038146973</v>
       </c>
       <c r="C71">
-        <v>1375.878198169817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3335,7 +3335,7 @@
         <v>0.2929999828338623</v>
       </c>
       <c r="C72">
-        <v>22.77660271490709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3346,7 +3346,7 @@
         <v>0.2000000476837158</v>
       </c>
       <c r="C73">
-        <v>38.45558590721694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3357,7 +3357,7 @@
         <v>0.7029998302459717</v>
       </c>
       <c r="C74">
-        <v>1075.837197858936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3368,7 +3368,7 @@
         <v>0.5080001354217529</v>
       </c>
       <c r="C75">
-        <v>652.8020010033806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3379,7 +3379,7 @@
         <v>0.494999885559082</v>
       </c>
       <c r="C76">
-        <v>362.3346384127427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3390,7 +3390,7 @@
         <v>0.2899999618530273</v>
       </c>
       <c r="C77">
-        <v>55.6922511118804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3401,7 +3401,7 @@
         <v>0.187000036239624</v>
       </c>
       <c r="C78">
-        <v>58.69687247231606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3412,7 +3412,7 @@
         <v>0.687999963760376</v>
       </c>
       <c r="C79">
-        <v>1098.367291521216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3423,7 +3423,7 @@
         <v>0.4909999370574951</v>
       </c>
       <c r="C80">
-        <v>661.3803888191939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3434,7 +3434,7 @@
         <v>0.4989998340606689</v>
       </c>
       <c r="C81">
-        <v>375.8781981698166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3445,7 +3445,7 @@
         <v>0.3970000743865967</v>
       </c>
       <c r="C82">
-        <v>19.8873981872152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3456,7 +3456,7 @@
         <v>0.1519999504089355</v>
       </c>
       <c r="C83">
-        <v>28.64645279649577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3467,7 +3467,7 @@
         <v>0.1979999542236328</v>
       </c>
       <c r="C84">
-        <v>82.1078541869114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3478,7 +3478,7 @@
         <v>0.2569999694824219</v>
       </c>
       <c r="C85">
-        <v>26.1901829964691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3489,7 +3489,7 @@
         <v>0.2349998950958252</v>
       </c>
       <c r="C86">
-        <v>32.30303952959039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3500,7 +3500,7 @@
         <v>0.2749998569488525</v>
       </c>
       <c r="C87">
-        <v>50.44104980002315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3511,7 +3511,7 @@
         <v>0.1720001697540283</v>
       </c>
       <c r="C88">
-        <v>42.80957162069346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3522,7 +3522,7 @@
         <v>0.2179999351501465</v>
       </c>
       <c r="C89">
-        <v>109.618794308272</v>
+        <v>3.651407921736054E-12</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3533,7 +3533,7 @@
         <v>0.2409999370574951</v>
       </c>
       <c r="C90">
-        <v>41.54218878391866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3544,7 +3544,7 @@
         <v>0.1959998607635498</v>
       </c>
       <c r="C91">
-        <v>41.1743708687662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3555,7 +3555,7 @@
         <v>0.07299995422363281</v>
       </c>
       <c r="C92">
-        <v>115.048452741113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3566,7 +3566,7 @@
         <v>0.1400001049041748</v>
       </c>
       <c r="C93">
-        <v>414.7472466082175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3577,7 +3577,7 @@
         <v>0.179999828338623</v>
       </c>
       <c r="C94">
-        <v>1088.226141199121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3588,7 +3588,7 @@
         <v>0.2519998550415039</v>
       </c>
       <c r="C95">
-        <v>727.8031704376839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3599,7 +3599,7 @@
         <v>0.1569998264312744</v>
       </c>
       <c r="C96">
-        <v>651.7225184054889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3665,7 +3665,7 @@
         <v>0.05899977684020996</v>
       </c>
       <c r="C102">
-        <v>22.77660271490709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3676,7 +3676,7 @@
         <v>0.0559999942779541</v>
       </c>
       <c r="C103">
-        <v>159.7472466082175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3687,7 +3687,7 @@
         <v>0.1679999828338623</v>
       </c>
       <c r="C104">
-        <v>588.2261411991213</v>
+        <v>6.642711601573038E-13</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3698,7 +3698,7 @@
         <v>0.1980001926422119</v>
       </c>
       <c r="C105">
-        <v>282.8031704376839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3709,7 +3709,7 @@
         <v>0.0559999942779541</v>
       </c>
       <c r="C106">
-        <v>286.7225184054889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3775,7 +3775,7 @@
         <v>0.05299997329711914</v>
       </c>
       <c r="C112">
-        <v>21.91705383413559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3786,7 +3786,7 @@
         <v>0.06400012969970703</v>
       </c>
       <c r="C113">
-        <v>159.7472466082176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3797,7 +3797,7 @@
         <v>0.07299995422363281</v>
       </c>
       <c r="C114">
-        <v>160.8473304643112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3808,7 +3808,7 @@
         <v>0.09000015258789062</v>
       </c>
       <c r="C115">
-        <v>151.1901829964691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3819,7 +3819,7 @@
         <v>0.06299996376037598</v>
       </c>
       <c r="C116">
-        <v>278.5120426959607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3885,7 +3885,7 @@
         <v>0.1970000267028809</v>
       </c>
       <c r="C122">
-        <v>115.048452741113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3896,7 +3896,7 @@
         <v>0.3980000019073486</v>
       </c>
       <c r="C123">
-        <v>414.7472466082176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3907,7 +3907,7 @@
         <v>0.5179998874664307</v>
       </c>
       <c r="C124">
-        <v>905.1028549334305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3918,7 +3918,7 @@
         <v>0.5580000877380371</v>
       </c>
       <c r="C125">
-        <v>602.8031704376839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3929,7 +3929,7 @@
         <v>0.4070000648498535</v>
       </c>
       <c r="C126">
-        <v>526.7225184054888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3940,7 +3940,7 @@
         <v>0.2309999465942383</v>
       </c>
       <c r="C127">
-        <v>281.8212537957273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3951,7 +3951,7 @@
         <v>0.2950000762939453</v>
       </c>
       <c r="C128">
-        <v>574.5835492556275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3962,7 +3962,7 @@
         <v>0.4539999961853027</v>
       </c>
       <c r="C129">
-        <v>1191.256299461173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3973,7 +3973,7 @@
         <v>0.4619998931884766</v>
       </c>
       <c r="C130">
-        <v>620.8679055020513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3984,7 +3984,7 @@
         <v>0.3459999561309814</v>
       </c>
       <c r="C131">
-        <v>540.8945284542567</v>
+        <v>1.695966672462465E-12</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3995,7 +3995,7 @@
         <v>0.1610000133514404</v>
       </c>
       <c r="C132">
-        <v>22.77660271490709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4006,7 +4006,7 @@
         <v>0.1139998435974121</v>
       </c>
       <c r="C133">
-        <v>34.74724660821753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4017,7 +4017,7 @@
         <v>0.3680000305175781</v>
       </c>
       <c r="C134">
-        <v>405.1028549334305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4028,7 +4028,7 @@
         <v>0.2130000591278076</v>
       </c>
       <c r="C135">
-        <v>102.8031704376839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>0.1830000877380371</v>
       </c>
       <c r="C136">
-        <v>36.72251840548891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4050,7 +4050,7 @@
         <v>0.1230001449584961</v>
       </c>
       <c r="C137">
-        <v>178.5571398765394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4061,7 +4061,7 @@
         <v>0.09999990463256836</v>
       </c>
       <c r="C138">
-        <v>292.8095716206934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4072,7 +4072,7 @@
         <v>0.3689999580383301</v>
       </c>
       <c r="C139">
-        <v>691.2562994611725</v>
+        <v>6.382851303366312E-13</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4083,7 +4083,7 @@
         <v>0.1729998588562012</v>
       </c>
       <c r="C140">
-        <v>120.8679055020513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4094,7 +4094,7 @@
         <v>0.3190000057220459</v>
       </c>
       <c r="C141">
-        <v>175.8945284542567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4105,7 +4105,7 @@
         <v>0.1979999542236328</v>
       </c>
       <c r="C142">
-        <v>19.8873981872152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4116,7 +4116,7 @@
         <v>0.1080000400543213</v>
       </c>
       <c r="C143">
-        <v>28.64645279649577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4127,7 +4127,7 @@
         <v>0.08699989318847656</v>
       </c>
       <c r="C144">
-        <v>38.99042449334852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4138,7 +4138,7 @@
         <v>0.1979999542236328</v>
       </c>
       <c r="C145">
-        <v>26.1901829964691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>0.2260000705718994</v>
       </c>
       <c r="C146">
-        <v>32.30303952959039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4160,7 +4160,7 @@
         <v>0.1669998168945312</v>
       </c>
       <c r="C147">
-        <v>175.4410498000231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4171,7 +4171,7 @@
         <v>0.1059999465942383</v>
       </c>
       <c r="C148">
-        <v>292.8095716206935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4182,7 +4182,7 @@
         <v>0.2929999828338623</v>
       </c>
       <c r="C149">
-        <v>431.4808965863051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4193,7 +4193,7 @@
         <v>0.2089998722076416</v>
       </c>
       <c r="C150">
-        <v>42.90755370385152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4204,7 +4204,7 @@
         <v>0.1419999599456787</v>
       </c>
       <c r="C151">
-        <v>41.1743708687662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4215,7 +4215,7 @@
         <v>0.3570001125335693</v>
       </c>
       <c r="C152">
-        <v>115.048452741113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4226,7 +4226,7 @@
         <v>0.3670001029968262</v>
       </c>
       <c r="C153">
-        <v>414.7472466082176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4237,7 +4237,7 @@
         <v>0.7349998950958252</v>
       </c>
       <c r="C154">
-        <v>905.1028549334305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4248,7 +4248,7 @@
         <v>0.624000072479248</v>
       </c>
       <c r="C155">
-        <v>602.8031704376839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4259,7 +4259,7 @@
         <v>0.434999942779541</v>
       </c>
       <c r="C156">
-        <v>526.7225184054889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4270,7 +4270,7 @@
         <v>0.2529997825622559</v>
       </c>
       <c r="C157">
-        <v>156.8212537957272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4281,7 +4281,7 @@
         <v>0.4590001106262207</v>
       </c>
       <c r="C158">
-        <v>442.8793912048588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4292,7 +4292,7 @@
         <v>0.6850001811981201</v>
       </c>
       <c r="C159">
-        <v>941.2562994611724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4303,7 +4303,7 @@
         <v>0.4509999752044678</v>
       </c>
       <c r="C160">
-        <v>620.8679055020514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4314,7 +4314,7 @@
         <v>0.4100000858306885</v>
       </c>
       <c r="C161">
-        <v>540.8945284542566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4325,7 +4325,7 @@
         <v>0.2920000553131104</v>
       </c>
       <c r="C162">
-        <v>22.77660271490709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4336,7 +4336,7 @@
         <v>0.2400000095367432</v>
       </c>
       <c r="C163">
-        <v>34.74724660821754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4347,7 +4347,7 @@
         <v>0.429999828338623</v>
       </c>
       <c r="C164">
-        <v>405.1028549334305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4358,7 +4358,7 @@
         <v>0.190000057220459</v>
       </c>
       <c r="C165">
-        <v>102.8031704376839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4369,7 +4369,7 @@
         <v>0.2780001163482666</v>
       </c>
       <c r="C166">
-        <v>36.72251840548891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4380,7 +4380,7 @@
         <v>0.2860000133514404</v>
       </c>
       <c r="C167">
-        <v>55.6922511118804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4391,7 +4391,7 @@
         <v>0.2300000190734863</v>
       </c>
       <c r="C168">
-        <v>58.69687247231606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4402,7 +4402,7 @@
         <v>0.5480000972747803</v>
       </c>
       <c r="C169">
-        <v>441.2562994611725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4413,7 +4413,7 @@
         <v>0.2790000438690186</v>
       </c>
       <c r="C170">
-        <v>120.8679055020513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4424,7 +4424,7 @@
         <v>0.315000057220459</v>
       </c>
       <c r="C171">
-        <v>50.89452845425664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4435,7 +4435,7 @@
         <v>0.3450000286102295</v>
       </c>
       <c r="C172">
-        <v>19.8873981872152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4446,7 +4446,7 @@
         <v>0.1700000762939453</v>
       </c>
       <c r="C173">
-        <v>28.64645279649577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4457,7 +4457,7 @@
         <v>0.1990001201629639</v>
       </c>
       <c r="C174">
-        <v>38.99042449334853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4468,7 +4468,7 @@
         <v>0.2670001983642578</v>
       </c>
       <c r="C175">
-        <v>26.1901829964691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4479,7 +4479,7 @@
         <v>0.2559998035430908</v>
       </c>
       <c r="C176">
-        <v>32.30303952959039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4490,7 +4490,7 @@
         <v>0.2690000534057617</v>
       </c>
       <c r="C177">
-        <v>50.44104980002315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4501,7 +4501,7 @@
         <v>0.1600000858306885</v>
       </c>
       <c r="C178">
-        <v>42.80957162069346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4512,7 +4512,7 @@
         <v>0.3169999122619629</v>
       </c>
       <c r="C179">
-        <v>80.23822875634238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4523,7 +4523,7 @@
         <v>0.2380001544952393</v>
       </c>
       <c r="C180">
-        <v>41.54218878391866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4534,7 +4534,7 @@
         <v>0.2239999771118164</v>
       </c>
       <c r="C181">
-        <v>41.1743708687662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4545,7 +4545,7 @@
         <v>2.766999959945679</v>
       </c>
       <c r="C182">
-        <v>2185.112855136964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4567,7 +4567,7 @@
         <v>0.3050000667572021</v>
       </c>
       <c r="C184">
-        <v>2310.562461488729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4578,7 +4578,7 @@
         <v>0.3669998645782471</v>
       </c>
       <c r="C185">
-        <v>2003.755851382886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4589,7 +4589,7 @@
         <v>1.349000215530396</v>
       </c>
       <c r="C186">
-        <v>2121.377797195099</v>
+        <v>2.280834568849307E-13</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4655,7 +4655,7 @@
         <v>1.211999893188477</v>
       </c>
       <c r="C192">
-        <v>685.1128551369645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4677,7 +4677,7 @@
         <v>0.2450001239776611</v>
       </c>
       <c r="C194">
-        <v>844.4285884655867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4688,7 +4688,7 @@
         <v>0.07100009918212891</v>
       </c>
       <c r="C195">
-        <v>908.7558513828858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4699,7 +4699,7 @@
         <v>0.4810001850128174</v>
       </c>
       <c r="C196">
-        <v>738.6283026260406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4765,7 +4765,7 @@
         <v>0.2030000686645508</v>
       </c>
       <c r="C202">
-        <v>150.1128551369644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4787,7 +4787,7 @@
         <v>0.08699989318847656</v>
       </c>
       <c r="C204">
-        <v>329.4285884655867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4798,7 +4798,7 @@
         <v>0.05900001525878906</v>
       </c>
       <c r="C205">
-        <v>908.0161518110616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4809,7 +4809,7 @@
         <v>0.1400001049041748</v>
       </c>
       <c r="C206">
-        <v>281.3777971950992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4875,7 +4875,7 @@
         <v>5.23799991607666</v>
       </c>
       <c r="C212">
-        <v>2185.112855136965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4886,7 +4886,7 @@
         <v>4.287999868392944</v>
       </c>
       <c r="C213">
-        <v>2425.362496673335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4897,7 +4897,7 @@
         <v>4.309999942779541</v>
       </c>
       <c r="C214">
-        <v>2310.562461488729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4908,7 +4908,7 @@
         <v>3.842999935150146</v>
       </c>
       <c r="C215">
-        <v>2003.016151811061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4919,7 +4919,7 @@
         <v>4.475000143051147</v>
       </c>
       <c r="C216">
-        <v>2121.3777971951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4930,7 +4930,7 @@
         <v>3.144000053405762</v>
       </c>
       <c r="C217">
-        <v>2218.318166642876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4941,7 +4941,7 @@
         <v>2.657000064849854</v>
       </c>
       <c r="C218">
-        <v>2446.968347291594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4952,7 +4952,7 @@
         <v>2.316999912261963</v>
       </c>
       <c r="C219">
-        <v>2335.937185240919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4963,7 +4963,7 @@
         <v>3.218999862670898</v>
       </c>
       <c r="C220">
-        <v>2018.895033380186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4974,7 +4974,7 @@
         <v>3.995999813079834</v>
       </c>
       <c r="C221">
-        <v>2136.558667171441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4985,7 +4985,7 @@
         <v>1.98799991607666</v>
       </c>
       <c r="C222">
-        <v>685.1128551369645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4996,7 +4996,7 @@
         <v>2.421999931335449</v>
       </c>
       <c r="C223">
-        <v>925.3624966733348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5007,7 +5007,7 @@
         <v>2.136000156402588</v>
       </c>
       <c r="C224">
-        <v>825.2969878361854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5018,7 +5018,7 @@
         <v>1.190000057220459</v>
       </c>
       <c r="C225">
-        <v>503.7558513828857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5029,7 +5029,7 @@
         <v>2.105000019073486</v>
       </c>
       <c r="C226">
-        <v>623.6283026260406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5040,7 +5040,7 @@
         <v>1.45799994468689</v>
       </c>
       <c r="C227">
-        <v>720.2613392422663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5051,7 +5051,7 @@
         <v>1.378000020980835</v>
       </c>
       <c r="C228">
-        <v>1115.897220434226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5062,7 +5062,7 @@
         <v>0.7820000648498535</v>
       </c>
       <c r="C229">
-        <v>850.8181034455101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5073,7 +5073,7 @@
         <v>0.5409998893737793</v>
       </c>
       <c r="C230">
-        <v>669.9834391324291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5084,7 +5084,7 @@
         <v>1.630000114440918</v>
       </c>
       <c r="C231">
-        <v>641.4175703635007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5095,7 +5095,7 @@
         <v>0.3040001392364502</v>
       </c>
       <c r="C232">
-        <v>25.43278823556517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5106,7 +5106,7 @@
         <v>0.06299996376037598</v>
       </c>
       <c r="C233">
-        <v>35.36249667333503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5117,7 +5117,7 @@
         <v>0.4189999103546143</v>
       </c>
       <c r="C234">
-        <v>204.4285884655867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5128,7 +5128,7 @@
         <v>0.0839998722076416</v>
       </c>
       <c r="C235">
-        <v>33.01615181106153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5139,7 +5139,7 @@
         <v>0.2339999675750732</v>
       </c>
       <c r="C236">
-        <v>31.37779719509918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5150,7 +5150,7 @@
         <v>0.6940000057220459</v>
       </c>
       <c r="C237">
-        <v>308.6380997414765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5161,7 +5161,7 @@
         <v>0.1819999217987061</v>
       </c>
       <c r="C238">
-        <v>556.9683472915941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5172,7 +5172,7 @@
         <v>0.315000057220459</v>
       </c>
       <c r="C239">
-        <v>354.8033122177765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5183,7 +5183,7 @@
         <v>0.1119999885559082</v>
       </c>
       <c r="C240">
-        <v>423.8952000432664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5194,7 +5194,7 @@
         <v>0.1339998245239258</v>
       </c>
       <c r="C241">
-        <v>47.47116110121802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5205,7 +5205,7 @@
         <v>8.129999876022339</v>
       </c>
       <c r="C242">
-        <v>2185.112855136965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5216,7 +5216,7 @@
         <v>4.002000093460083</v>
       </c>
       <c r="C243">
-        <v>2425.362496673335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -5227,7 +5227,7 @@
         <v>6.66700005531311</v>
       </c>
       <c r="C244">
-        <v>2310.562461488729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5238,7 +5238,7 @@
         <v>4.370000123977661</v>
       </c>
       <c r="C245">
-        <v>2003.016151811062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5249,7 +5249,7 @@
         <v>9.134000062942505</v>
       </c>
       <c r="C246">
-        <v>2121.3777971951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5260,7 +5260,7 @@
         <v>10.11399984359741</v>
       </c>
       <c r="C247">
-        <v>2218.318166642876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5271,7 +5271,7 @@
         <v>4.131999969482422</v>
       </c>
       <c r="C248">
-        <v>2446.968347291594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5282,7 +5282,7 @@
         <v>4.528000116348267</v>
       </c>
       <c r="C249">
-        <v>2335.937185240919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5293,7 +5293,7 @@
         <v>4.30400013923645</v>
       </c>
       <c r="C250">
-        <v>2018.895200043266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5304,7 +5304,7 @@
         <v>9.208999872207642</v>
       </c>
       <c r="C251">
-        <v>2136.558667171442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5315,7 +5315,7 @@
         <v>2.230999946594238</v>
       </c>
       <c r="C252">
-        <v>685.1128551369645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5326,7 +5326,7 @@
         <v>3.39900016784668</v>
       </c>
       <c r="C253">
-        <v>925.362496673335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5337,7 +5337,7 @@
         <v>3.157000064849854</v>
       </c>
       <c r="C254">
-        <v>825.2969878361854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5348,7 +5348,7 @@
         <v>1.697999954223633</v>
       </c>
       <c r="C255">
-        <v>503.7558513828857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5359,7 +5359,7 @@
         <v>2.05400013923645</v>
       </c>
       <c r="C256">
-        <v>623.6283026260406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5370,7 +5370,7 @@
         <v>2.164999961853027</v>
       </c>
       <c r="C257">
-        <v>718.3181666428759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5381,7 +5381,7 @@
         <v>2.846999883651733</v>
       </c>
       <c r="C258">
-        <v>946.9683472915942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5392,7 +5392,7 @@
         <v>2.425999879837036</v>
       </c>
       <c r="C259">
-        <v>850.6717115883753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5403,7 +5403,7 @@
         <v>1.356000185012817</v>
       </c>
       <c r="C260">
-        <v>519.6348996150907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5414,7 +5414,7 @@
         <v>2.157000064849854</v>
       </c>
       <c r="C261">
-        <v>638.809172602383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5425,7 +5425,7 @@
         <v>0.5839998722076416</v>
       </c>
       <c r="C262">
-        <v>25.43278823556517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5436,7 +5436,7 @@
         <v>0.2379999160766602</v>
       </c>
       <c r="C263">
-        <v>35.36249667333503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5447,7 +5447,7 @@
         <v>0.4900000095367432</v>
       </c>
       <c r="C264">
-        <v>45.29698783618539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5458,7 +5458,7 @@
         <v>0.3429999351501465</v>
       </c>
       <c r="C265">
-        <v>33.01615181106153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5469,7 +5469,7 @@
         <v>0.496999979019165</v>
       </c>
       <c r="C266">
-        <v>31.37779719509918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5480,7 +5480,7 @@
         <v>0.7560000419616699</v>
       </c>
       <c r="C267">
-        <v>58.63809974147647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5491,7 +5491,7 @@
         <v>0.1749999523162842</v>
       </c>
       <c r="C268">
-        <v>56.96834729159416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5502,7 +5502,7 @@
         <v>0.3299999237060547</v>
       </c>
       <c r="C269">
-        <v>70.67171158837527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5513,7 +5513,7 @@
         <v>0.3280000686645508</v>
       </c>
       <c r="C270">
-        <v>48.89520004326645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5524,7 +5524,7 @@
         <v>0.7330000400543213</v>
       </c>
       <c r="C271">
-        <v>46.55866717144153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5535,7 +5535,7 @@
         <v>2.328999996185303</v>
       </c>
       <c r="C272">
-        <v>1087.966335834998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5546,7 +5546,7 @@
         <v>0.1659998893737793</v>
       </c>
       <c r="C273">
-        <v>1159.690000600716</v>
+        <v>3.189964298687687E-13</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5557,7 +5557,7 @@
         <v>0.4030001163482666</v>
       </c>
       <c r="C274">
-        <v>1087.373510643051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5568,7 +5568,7 @@
         <v>0.1289999485015869</v>
       </c>
       <c r="C275">
-        <v>1130.778086003419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5579,7 +5579,7 @@
         <v>0.6480000019073486</v>
       </c>
       <c r="C276">
-        <v>937.5801447696741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5645,7 +5645,7 @@
         <v>0.246999979019165</v>
       </c>
       <c r="C282">
-        <v>150.1018109734238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5656,7 +5656,7 @@
         <v>0.04199981689453125</v>
       </c>
       <c r="C283">
-        <v>289.690000600716</v>
+        <v>9.000041024651542E-05</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5667,7 +5667,7 @@
         <v>0.1160001754760742</v>
       </c>
       <c r="C284">
-        <v>162.3735106430512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5678,7 +5678,7 @@
         <v>0.04600000381469727</v>
       </c>
       <c r="C285">
-        <v>785.7780860034188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5689,7 +5689,7 @@
         <v>0.2589998245239258</v>
       </c>
       <c r="C286">
-        <v>287.580144769674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5755,7 +5755,7 @@
         <v>0.07699990272521973</v>
       </c>
       <c r="C292">
-        <v>30.1018109734238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5766,7 +5766,7 @@
         <v>0.03999996185302734</v>
       </c>
       <c r="C293">
-        <v>289.6900006007161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5777,7 +5777,7 @@
         <v>0.1080000400543213</v>
       </c>
       <c r="C294">
-        <v>162.3735106430512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5788,7 +5788,7 @@
         <v>0.04699993133544922</v>
       </c>
       <c r="C295">
-        <v>785.7780860034186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5799,7 +5799,7 @@
         <v>0.1640000343322754</v>
       </c>
       <c r="C296">
-        <v>160.4800292743825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5865,7 +5865,7 @@
         <v>4.065000057220459</v>
       </c>
       <c r="C302">
-        <v>1087.966540950228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5876,7 +5876,7 @@
         <v>3.148000001907349</v>
       </c>
       <c r="C303">
-        <v>1159.690000600716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5887,7 +5887,7 @@
         <v>3.450000047683716</v>
       </c>
       <c r="C304">
-        <v>1087.373510643051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5898,7 +5898,7 @@
         <v>2.776000022888184</v>
       </c>
       <c r="C305">
-        <v>800.7202803641931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5909,7 +5909,7 @@
         <v>3.601999998092651</v>
       </c>
       <c r="C306">
-        <v>937.580144769674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5920,7 +5920,7 @@
         <v>2.70799994468689</v>
       </c>
       <c r="C307">
-        <v>1258.031603182283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5931,7 +5931,7 @@
         <v>1.206000089645386</v>
       </c>
       <c r="C308">
-        <v>1186.843806461432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5942,7 +5942,7 @@
         <v>2.50600004196167</v>
       </c>
       <c r="C309">
-        <v>1308.159131012676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5953,7 +5953,7 @@
         <v>1.024999856948853</v>
       </c>
       <c r="C310">
-        <v>826.804592180548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5964,7 +5964,7 @@
         <v>3.438999891281128</v>
       </c>
       <c r="C311">
-        <v>959.7417311048525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5975,7 +5975,7 @@
         <v>0.5039999485015869</v>
       </c>
       <c r="C312">
-        <v>121.1226563848278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5986,7 +5986,7 @@
         <v>0.3929998874664307</v>
       </c>
       <c r="C313">
-        <v>159.6900006007161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5997,7 +5997,7 @@
         <v>0.1359999179840088</v>
       </c>
       <c r="C314">
-        <v>117.3735106430512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6008,7 +6008,7 @@
         <v>0.4489998817443848</v>
       </c>
       <c r="C315">
-        <v>165.7202803641931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -6019,7 +6019,7 @@
         <v>0.2830002307891846</v>
       </c>
       <c r="C316">
-        <v>39.95401844708239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6030,7 +6030,7 @@
         <v>1.674000024795532</v>
       </c>
       <c r="C317">
-        <v>446.1511702949153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6041,7 +6041,7 @@
         <v>0.1310000419616699</v>
       </c>
       <c r="C318">
-        <v>491.8438064614314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6052,7 +6052,7 @@
         <v>0.2839999198913574</v>
       </c>
       <c r="C319">
-        <v>338.1591310126756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6063,7 +6063,7 @@
         <v>0.1429998874664307</v>
       </c>
       <c r="C320">
-        <v>430.6742486621407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6074,7 +6074,7 @@
         <v>0.3289999961853027</v>
       </c>
       <c r="C321">
-        <v>62.11560478226083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6085,7 +6085,7 @@
         <v>0.312000036239624</v>
       </c>
       <c r="C322">
-        <v>25.43278823556516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6096,7 +6096,7 @@
         <v>0.0690000057220459</v>
       </c>
       <c r="C323">
-        <v>35.36249667333503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -6107,7 +6107,7 @@
         <v>0.250999927520752</v>
       </c>
       <c r="C324">
-        <v>37.3735106430512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -6118,7 +6118,7 @@
         <v>0.1669998168945312</v>
       </c>
       <c r="C325">
-        <v>33.01615181106153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -6129,7 +6129,7 @@
         <v>0.2300000190734863</v>
       </c>
       <c r="C326">
-        <v>31.37779719509918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6140,7 +6140,7 @@
         <v>0.4170000553131104</v>
       </c>
       <c r="C327">
-        <v>308.6380997414764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6151,7 +6151,7 @@
         <v>0.08299994468688965</v>
       </c>
       <c r="C328">
-        <v>441.0258476744551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6162,7 +6162,7 @@
         <v>0.2339999675750732</v>
       </c>
       <c r="C329">
-        <v>320.8356573396431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6173,7 +6173,7 @@
         <v>0.1410000324249268</v>
       </c>
       <c r="C330">
-        <v>423.8952000432665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -6184,7 +6184,7 @@
         <v>0.2230000495910645</v>
       </c>
       <c r="C331">
-        <v>47.47116110121802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6195,7 +6195,7 @@
         <v>5.218999862670898</v>
       </c>
       <c r="C332">
-        <v>1087.966540950228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6206,7 +6206,7 @@
         <v>4.074000120162964</v>
       </c>
       <c r="C333">
-        <v>1159.690000600716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6217,7 +6217,7 @@
         <v>4.328999996185303</v>
       </c>
       <c r="C334">
-        <v>1087.373510643051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6228,7 +6228,7 @@
         <v>3.282999992370605</v>
       </c>
       <c r="C335">
-        <v>800.7202803641931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6239,7 +6239,7 @@
         <v>4.03600001335144</v>
       </c>
       <c r="C336">
-        <v>937.580144769674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6250,7 +6250,7 @@
         <v>6.188999891281128</v>
       </c>
       <c r="C337">
-        <v>1133.031603182283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6261,7 +6261,7 @@
         <v>3.60699987411499</v>
       </c>
       <c r="C338">
-        <v>1186.843806461432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6272,7 +6272,7 @@
         <v>3.998999834060669</v>
       </c>
       <c r="C339">
-        <v>1126.281619870769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6283,7 +6283,7 @@
         <v>2.763000011444092</v>
       </c>
       <c r="C340">
-        <v>826.804592180548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6294,7 +6294,7 @@
         <v>5.756999969482422</v>
       </c>
       <c r="C341">
-        <v>959.7417311048523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6305,7 +6305,7 @@
         <v>0.9049999713897705</v>
       </c>
       <c r="C342">
-        <v>121.1226563848278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6316,7 +6316,7 @@
         <v>0.872999906539917</v>
       </c>
       <c r="C343">
-        <v>159.6900006007161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6327,7 +6327,7 @@
         <v>0.6050000190734863</v>
       </c>
       <c r="C344">
-        <v>117.3735106430512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6338,7 +6338,7 @@
         <v>0.502000093460083</v>
       </c>
       <c r="C345">
-        <v>40.72028036419304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6349,7 +6349,7 @@
         <v>0.7369999885559082</v>
       </c>
       <c r="C346">
-        <v>39.95401844708239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6360,7 +6360,7 @@
         <v>1.186000108718872</v>
       </c>
       <c r="C347">
-        <v>166.1877186168823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6371,7 +6371,7 @@
         <v>0.6430001258850098</v>
       </c>
       <c r="C348">
-        <v>186.8438064614314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6382,7 +6382,7 @@
         <v>0.6160001754760742</v>
       </c>
       <c r="C349">
-        <v>156.2816198707687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6393,7 +6393,7 @@
         <v>0.3530001640319824</v>
       </c>
       <c r="C350">
-        <v>66.80459218054793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6404,7 +6404,7 @@
         <v>0.6510000228881836</v>
       </c>
       <c r="C351">
-        <v>62.11560478226084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6415,7 +6415,7 @@
         <v>0.7120001316070557</v>
       </c>
       <c r="C352">
-        <v>25.43278823556516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6426,7 +6426,7 @@
         <v>0.2630000114440918</v>
       </c>
       <c r="C353">
-        <v>35.36249667333503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6437,7 +6437,7 @@
         <v>0.5529999732971191</v>
       </c>
       <c r="C354">
-        <v>37.3735106430512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6448,7 +6448,7 @@
         <v>0.3640000820159912</v>
       </c>
       <c r="C355">
-        <v>33.01615181106153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6459,7 +6459,7 @@
         <v>0.8239998817443848</v>
       </c>
       <c r="C356">
-        <v>31.37779719509918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6470,7 +6470,7 @@
         <v>0.622999906539917</v>
       </c>
       <c r="C357">
-        <v>58.63809974147647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6481,7 +6481,7 @@
         <v>0.2290000915527344</v>
       </c>
       <c r="C358">
-        <v>56.96834729159416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6492,7 +6492,7 @@
         <v>0.3970000743865967</v>
       </c>
       <c r="C359">
-        <v>70.67171158837529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6503,7 +6503,7 @@
         <v>0.2749998569488525</v>
       </c>
       <c r="C360">
-        <v>48.89520004326646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6514,7 +6514,7 @@
         <v>0.5320000648498535</v>
       </c>
       <c r="C361">
-        <v>46.55866717144154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6525,7 +6525,7 @@
         <v>8.105999946594238</v>
       </c>
       <c r="C362">
-        <v>3367.410660113023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6536,7 +6536,7 @@
         <v>1.33899998664856</v>
       </c>
       <c r="C363">
-        <v>3343.547664752282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6547,7 +6547,7 @@
         <v>2.611999988555908</v>
       </c>
       <c r="C364">
-        <v>3421.048928944426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6558,7 +6558,7 @@
         <v>0.7209999561309814</v>
       </c>
       <c r="C365">
-        <v>3515.273373961362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6569,7 +6569,7 @@
         <v>2.187000036239624</v>
       </c>
       <c r="C366">
-        <v>3399.910030036803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6635,7 +6635,7 @@
         <v>6.508000135421753</v>
       </c>
       <c r="C372">
-        <v>1868.223391898488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6646,7 +6646,7 @@
         <v>0.8550000190734863</v>
       </c>
       <c r="C373">
-        <v>1846.568292596544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6657,7 +6657,7 @@
         <v>1.869999885559082</v>
       </c>
       <c r="C374">
-        <v>1929.55827025673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6668,7 +6668,7 @@
         <v>0.6989998817443848</v>
       </c>
       <c r="C375">
-        <v>2020.607811285339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6679,7 +6679,7 @@
         <v>1.578999996185303</v>
       </c>
       <c r="C376">
-        <v>1904.164205145642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6745,7 +6745,7 @@
         <v>0.8969998359680176</v>
       </c>
       <c r="C382">
-        <v>403.6812682191309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6756,7 +6756,7 @@
         <v>0.6730000972747803</v>
       </c>
       <c r="C383">
-        <v>1119.540780453958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6767,7 +6767,7 @@
         <v>0.8870000839233398</v>
       </c>
       <c r="C384">
-        <v>912.0228984106875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6778,7 +6778,7 @@
         <v>0.2709999084472656</v>
       </c>
       <c r="C385">
-        <v>715.6078112853388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6789,7 +6789,7 @@
         <v>0.7339999675750732</v>
       </c>
       <c r="C386">
-        <v>1152.636152919547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6855,7 +6855,7 @@
         <v>72.44000005722046</v>
       </c>
       <c r="C392">
-        <v>3367.410660113024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6866,7 +6866,7 @@
         <v>58.99300003051758</v>
       </c>
       <c r="C393">
-        <v>3343.547664752282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6877,7 +6877,7 @@
         <v>64.49799990653992</v>
       </c>
       <c r="C394">
-        <v>3421.048928944426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6888,7 +6888,7 @@
         <v>60.62100005149841</v>
       </c>
       <c r="C395">
-        <v>3514.635616140448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6899,7 +6899,7 @@
         <v>61.84099984169006</v>
       </c>
       <c r="C396">
-        <v>3393.097266728465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6910,7 +6910,7 @@
         <v>25.59100008010864</v>
       </c>
       <c r="C397">
-        <v>3399.717531406102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6921,7 +6921,7 @@
         <v>31.93699979782104</v>
       </c>
       <c r="C398">
-        <v>3367.099299667941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6932,7 +6932,7 @@
         <v>32.43500018119812</v>
       </c>
       <c r="C399">
-        <v>3444.878290522497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6943,7 +6943,7 @@
         <v>34.35999989509583</v>
       </c>
       <c r="C400">
-        <v>3533.377216658031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6954,7 +6954,7 @@
         <v>57.2519998550415</v>
       </c>
       <c r="C401">
-        <v>3403.029066545737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6965,7 +6965,7 @@
         <v>53.54100012779236</v>
       </c>
       <c r="C402">
-        <v>1867.686266549475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6976,7 +6976,7 @@
         <v>36.32200002670288</v>
       </c>
       <c r="C403">
-        <v>1846.179008954156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6987,7 +6987,7 @@
         <v>57.73000001907349</v>
       </c>
       <c r="C404">
-        <v>1928.847090544343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6998,7 +6998,7 @@
         <v>39.58299994468689</v>
       </c>
       <c r="C405">
-        <v>2015.273373961362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7009,7 +7009,7 @@
         <v>53.74000000953674</v>
       </c>
       <c r="C406">
-        <v>1893.10536627294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7020,7 +7020,7 @@
         <v>18.45499992370605</v>
       </c>
       <c r="C407">
-        <v>1902.188334334968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7031,7 +7031,7 @@
         <v>27.94099998474121</v>
       </c>
       <c r="C408">
-        <v>1869.572273779666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7042,7 +7042,7 @@
         <v>30.20599985122681</v>
       </c>
       <c r="C409">
-        <v>1956.909644703683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7053,7 +7053,7 @@
         <v>21.14300012588501</v>
       </c>
       <c r="C410">
-        <v>2035.817922995952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7064,7 +7064,7 @@
         <v>40.29200005531311</v>
       </c>
       <c r="C411">
-        <v>1903.029066545736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7075,7 +7075,7 @@
         <v>4.603000164031982</v>
       </c>
       <c r="C412">
-        <v>375.9090054126568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7086,7 +7086,7 @@
         <v>5.558000087738037</v>
       </c>
       <c r="C413">
-        <v>504.1819321068928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7097,7 +7097,7 @@
         <v>4.353000164031982</v>
       </c>
       <c r="C414">
-        <v>433.211867563556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7108,7 +7108,7 @@
         <v>5.459999799728394</v>
       </c>
       <c r="C415">
-        <v>527.6914609088327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7119,7 +7119,7 @@
         <v>4.789999961853027</v>
       </c>
       <c r="C416">
-        <v>493.3349007222476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7130,7 +7130,7 @@
         <v>2.470000028610229</v>
       </c>
       <c r="C417">
-        <v>615.5298025730865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7141,7 +7141,7 @@
         <v>2.824000120162964</v>
       </c>
       <c r="C418">
-        <v>526.3732926433706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7152,7 +7152,7 @@
         <v>2.244999885559082</v>
       </c>
       <c r="C419">
-        <v>582.0980911169202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7163,7 +7163,7 @@
         <v>2.203999996185303</v>
       </c>
       <c r="C420">
-        <v>548.0293545940331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7174,7 +7174,7 @@
         <v>4.305000066757202</v>
       </c>
       <c r="C421">
-        <v>598.1554124000651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7185,7 +7185,7 @@
         <v>105.6050000190735</v>
       </c>
       <c r="C422">
-        <v>3366.736005259567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -7196,7 +7196,7 @@
         <v>76.11699986457825</v>
       </c>
       <c r="C423">
-        <v>3343.547664752282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7207,7 +7207,7 @@
         <v>90.35199999809265</v>
       </c>
       <c r="C424">
-        <v>3421.048928944426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -7218,7 +7218,7 @@
         <v>92.76799988746643</v>
       </c>
       <c r="C425">
-        <v>3514.635616140448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7229,7 +7229,7 @@
         <v>98.04800009727478</v>
       </c>
       <c r="C426">
-        <v>3393.095779140346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7240,7 +7240,7 @@
         <v>99.46600008010864</v>
       </c>
       <c r="C427">
-        <v>3399.698497100161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7251,7 +7251,7 @@
         <v>86.06599998474121</v>
       </c>
       <c r="C428">
-        <v>3367.099299667941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7262,7 +7262,7 @@
         <v>78.12599992752075</v>
       </c>
       <c r="C429">
-        <v>3444.878290522497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7273,7 +7273,7 @@
         <v>98.73899984359741</v>
       </c>
       <c r="C430">
-        <v>3533.377216658031</v>
+        <v>2.403198875169515E-09</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7284,7 +7284,7 @@
         <v>96.56900000572205</v>
       </c>
       <c r="C431">
-        <v>3403.029066545737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7295,7 +7295,7 @@
         <v>72.75100016593933</v>
       </c>
       <c r="C432">
-        <v>1867.686266549477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7306,7 +7306,7 @@
         <v>68.61800003051758</v>
       </c>
       <c r="C433">
-        <v>1846.179008954156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7317,7 +7317,7 @@
         <v>77.19000005722046</v>
       </c>
       <c r="C434">
-        <v>1928.847090544343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7328,7 +7328,7 @@
         <v>79.20699977874756</v>
       </c>
       <c r="C435">
-        <v>2015.273373961362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7339,7 +7339,7 @@
         <v>85.3970000743866</v>
       </c>
       <c r="C436">
-        <v>1893.10536627294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7350,7 +7350,7 @@
         <v>76.51999998092651</v>
       </c>
       <c r="C437">
-        <v>1899.705164038483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7361,7 +7361,7 @@
         <v>64.94899988174438</v>
       </c>
       <c r="C438">
-        <v>1869.572273779666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7372,7 +7372,7 @@
         <v>67.94800019264221</v>
       </c>
       <c r="C439">
-        <v>1956.895558274851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7383,7 +7383,7 @@
         <v>72.80399990081787</v>
       </c>
       <c r="C440">
-        <v>2035.817922995952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7394,7 +7394,7 @@
         <v>76.17599987983704</v>
       </c>
       <c r="C441">
-        <v>1903.029066545736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7405,7 +7405,7 @@
         <v>9.259999990463257</v>
       </c>
       <c r="C442">
-        <v>375.9090054126568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7416,7 +7416,7 @@
         <v>11.74399995803833</v>
       </c>
       <c r="C443">
-        <v>503.7489144919044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7427,7 +7427,7 @@
         <v>9.973000049591064</v>
       </c>
       <c r="C444">
-        <v>433.2118675635559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7438,7 +7438,7 @@
         <v>12.97800016403198</v>
       </c>
       <c r="C445">
-        <v>526.648202628526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7449,7 +7449,7 @@
         <v>7.785000085830688</v>
       </c>
       <c r="C446">
-        <v>414.1106183587026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7460,7 +7460,7 @@
         <v>9.839999914169312</v>
       </c>
       <c r="C447">
-        <v>407.6474255046548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -7471,7 +7471,7 @@
         <v>9.093999862670898</v>
       </c>
       <c r="C448">
-        <v>526.3732926433706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7482,7 +7482,7 @@
         <v>6.363999843597412</v>
       </c>
       <c r="C449">
-        <v>462.0980911169202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7493,7 +7493,7 @@
         <v>12.08399987220764</v>
       </c>
       <c r="C450">
-        <v>546.98609815975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7504,7 +7504,7 @@
         <v>13.07699990272522</v>
       </c>
       <c r="C451">
-        <v>427.3944950412945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7515,7 +7515,7 @@
         <v>17.36899995803833</v>
       </c>
       <c r="C452">
-        <v>1959.73671128706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7526,7 +7526,7 @@
         <v>2.585999965667725</v>
       </c>
       <c r="C453">
-        <v>1967.733360350737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7537,7 +7537,7 @@
         <v>3.89900016784668</v>
       </c>
       <c r="C454">
-        <v>2044.648364560247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7548,7 +7548,7 @@
         <v>2.628000020980835</v>
       </c>
       <c r="C455">
-        <v>2131.33670128217</v>
+        <v>4.881734257202573E-13</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7559,7 +7559,7 @@
         <v>3.276999950408936</v>
       </c>
       <c r="C456">
-        <v>1991.527401617898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7625,7 +7625,7 @@
         <v>1.828999996185303</v>
       </c>
       <c r="C462">
-        <v>460.420015512859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7636,7 +7636,7 @@
         <v>0.5729999542236328</v>
       </c>
       <c r="C463">
-        <v>703.1226439931252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7647,7 +7647,7 @@
         <v>2.002000093460083</v>
       </c>
       <c r="C464">
-        <v>904.6483645602469</v>
+        <v>5.677754506038843E-13</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7658,7 +7658,7 @@
         <v>0.30899977684021</v>
       </c>
       <c r="C465">
-        <v>636.3367012821706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7669,7 +7669,7 @@
         <v>0.3480000495910645</v>
       </c>
       <c r="C466">
-        <v>740.0524027745887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -7735,7 +7735,7 @@
         <v>0.07800006866455078</v>
       </c>
       <c r="C472">
-        <v>30.42001551285897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7746,7 +7746,7 @@
         <v>0.2209999561309814</v>
       </c>
       <c r="C473">
-        <v>415.5058948224398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7757,7 +7757,7 @@
         <v>0.3610000610351562</v>
       </c>
       <c r="C474">
-        <v>162.1129927142045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7768,7 +7768,7 @@
         <v>0.09399986267089844</v>
       </c>
       <c r="C475">
-        <v>291.3367012821707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7779,7 +7779,7 @@
         <v>0.304999828338623</v>
       </c>
       <c r="C476">
-        <v>666.5274016178977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -7845,7 +7845,7 @@
         <v>72.47499990463257</v>
       </c>
       <c r="C482">
-        <v>1959.73671128706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7856,7 +7856,7 @@
         <v>68.21500015258789</v>
       </c>
       <c r="C483">
-        <v>1967.729586930428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -7867,7 +7867,7 @@
         <v>77.31399989128113</v>
       </c>
       <c r="C484">
-        <v>2044.648364560247</v>
+        <v>1.274275788393832E-07</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -7878,7 +7878,7 @@
         <v>63.37899994850159</v>
       </c>
       <c r="C485">
-        <v>2131.336701282171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -7889,7 +7889,7 @@
         <v>69.98899984359741</v>
       </c>
       <c r="C486">
-        <v>1991.260056240874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -7900,7 +7900,7 @@
         <v>22.45099997520447</v>
       </c>
       <c r="C487">
-        <v>2001.099934348914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -7911,7 +7911,7 @@
         <v>53.61199998855591</v>
       </c>
       <c r="C488">
-        <v>2000.641448577852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -7922,7 +7922,7 @@
         <v>31.41300010681152</v>
       </c>
       <c r="C489">
-        <v>2080.894653373862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -7933,7 +7933,7 @@
         <v>23.67799997329712</v>
       </c>
       <c r="C490">
-        <v>2161.091912668222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7944,7 +7944,7 @@
         <v>65.91499996185303</v>
       </c>
       <c r="C491">
-        <v>2006.519542396571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -7955,7 +7955,7 @@
         <v>9.648000001907349</v>
       </c>
       <c r="C492">
-        <v>459.7367112870601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -7966,7 +7966,7 @@
         <v>6.918999910354614</v>
       </c>
       <c r="C493">
-        <v>475.9604956936373</v>
+        <v>3.818140617598164E-13</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -7977,7 +7977,7 @@
         <v>7.769999980926514</v>
       </c>
       <c r="C494">
-        <v>558.1961765597492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -7988,7 +7988,7 @@
         <v>8.305999994277954</v>
       </c>
       <c r="C495">
-        <v>631.3367012821707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -7999,7 +7999,7 @@
         <v>5.877000093460083</v>
       </c>
       <c r="C496">
-        <v>491.5274016178977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -8010,7 +8010,7 @@
         <v>5.394000053405762</v>
       </c>
       <c r="C497">
-        <v>850.5266208240714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -8021,7 +8021,7 @@
         <v>3.963000059127808</v>
       </c>
       <c r="C498">
-        <v>517.5542013988355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -8032,7 +8032,7 @@
         <v>2.545000076293945</v>
       </c>
       <c r="C499">
-        <v>609.4806999682539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -8043,7 +8043,7 @@
         <v>3.621000051498413</v>
       </c>
       <c r="C500">
-        <v>666.0919126682222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -8054,7 +8054,7 @@
         <v>4.184000015258789</v>
       </c>
       <c r="C501">
-        <v>506.5195423965705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -8065,7 +8065,7 @@
         <v>0.7549998760223389</v>
       </c>
       <c r="C502">
-        <v>29.30282188014642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -8076,7 +8076,7 @@
         <v>0.7409999370574951</v>
       </c>
       <c r="C503">
-        <v>37.73336035073658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -8087,7 +8087,7 @@
         <v>0.7849998474121094</v>
       </c>
       <c r="C504">
-        <v>34.64836456024694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -8098,7 +8098,7 @@
         <v>0.4509999752044678</v>
       </c>
       <c r="C505">
-        <v>41.33670128217062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -8109,7 +8109,7 @@
         <v>0.7229998111724854</v>
       </c>
       <c r="C506">
-        <v>41.52740161789771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -8120,7 +8120,7 @@
         <v>1.483000040054321</v>
       </c>
       <c r="C507">
-        <v>451.8028466811097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8131,7 +8131,7 @@
         <v>0.4589998722076416</v>
       </c>
       <c r="C508">
-        <v>67.0519731366425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -8142,7 +8142,7 @@
         <v>0.9900000095367432</v>
       </c>
       <c r="C509">
-        <v>320.8946533738618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -8153,7 +8153,7 @@
         <v>0.4849998950958252</v>
       </c>
       <c r="C510">
-        <v>196.0919126682222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -8164,7 +8164,7 @@
         <v>0.4689998626708984</v>
       </c>
       <c r="C511">
-        <v>56.50018647813049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -8175,7 +8175,7 @@
         <v>112.9630000591278</v>
       </c>
       <c r="C512">
-        <v>1959.73671128706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -8186,7 +8186,7 @@
         <v>83.77500009536743</v>
       </c>
       <c r="C513">
-        <v>1967.733360350737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -8197,7 +8197,7 @@
         <v>144.6679999828339</v>
       </c>
       <c r="C514">
-        <v>2044.648364560247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -8208,7 +8208,7 @@
         <v>133.3469998836517</v>
       </c>
       <c r="C515">
-        <v>2131.33670128217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -8219,7 +8219,7 @@
         <v>120.7769999504089</v>
       </c>
       <c r="C516">
-        <v>1991.527401617898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -8230,7 +8230,7 @@
         <v>96.14800000190735</v>
       </c>
       <c r="C517">
-        <v>2001.099934348914</v>
+        <v>2.292141077129021E-07</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -8241,7 +8241,7 @@
         <v>112.7339999675751</v>
       </c>
       <c r="C518">
-        <v>2000.641448577851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -8252,7 +8252,7 @@
         <v>108.8760001659393</v>
       </c>
       <c r="C519">
-        <v>2080.894653373862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -8263,7 +8263,7 @@
         <v>104.2119998931885</v>
       </c>
       <c r="C520">
-        <v>2161.073857188796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -8274,7 +8274,7 @@
         <v>119.3140001296997</v>
       </c>
       <c r="C521">
-        <v>2005.737420297236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -8285,7 +8285,7 @@
         <v>12.99000000953674</v>
       </c>
       <c r="C522">
-        <v>459.7367112870601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -8296,7 +8296,7 @@
         <v>10.37399983406067</v>
       </c>
       <c r="C523">
-        <v>475.9604956936373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -8307,7 +8307,7 @@
         <v>16.50399994850159</v>
       </c>
       <c r="C524">
-        <v>557.165296144153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -8318,7 +8318,7 @@
         <v>16.64199995994568</v>
       </c>
       <c r="C525">
-        <v>631.3367012821707</v>
+        <v>1.513547948101856E-08</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -8329,7 +8329,7 @@
         <v>8.846999883651733</v>
       </c>
       <c r="C526">
-        <v>491.5274016178977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -8340,7 +8340,7 @@
         <v>15.72300004959106</v>
       </c>
       <c r="C527">
-        <v>501.0999343489142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -8351,7 +8351,7 @@
         <v>9.855000019073486</v>
       </c>
       <c r="C528">
-        <v>508.8685839207522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -8362,7 +8362,7 @@
         <v>11.36299991607666</v>
       </c>
       <c r="C529">
-        <v>593.4115849577663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -8373,7 +8373,7 @@
         <v>15.65499997138977</v>
       </c>
       <c r="C530">
-        <v>661.0919126682222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -8384,7 +8384,7 @@
         <v>15.37599992752075</v>
       </c>
       <c r="C531">
-        <v>506.5195423965705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -8395,7 +8395,7 @@
         <v>2.539999961853027</v>
       </c>
       <c r="C532">
-        <v>29.30282188014642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -8406,7 +8406,7 @@
         <v>2.140000104904175</v>
       </c>
       <c r="C533">
-        <v>37.73336035073658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8417,7 +8417,7 @@
         <v>1.774999856948853</v>
       </c>
       <c r="C534">
-        <v>34.64836456024694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -8428,7 +8428,7 @@
         <v>1.187000036239624</v>
       </c>
       <c r="C535">
-        <v>41.33670128217062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -8439,7 +8439,7 @@
         <v>1.996999979019165</v>
       </c>
       <c r="C536">
-        <v>41.52740161789771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -8450,7 +8450,7 @@
         <v>1.744000196456909</v>
       </c>
       <c r="C537">
-        <v>71.09993434891416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -8461,7 +8461,7 @@
         <v>1.482000112533569</v>
       </c>
       <c r="C538">
-        <v>67.0519731366425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -8472,7 +8472,7 @@
         <v>1.584000110626221</v>
       </c>
       <c r="C539">
-        <v>70.89465337386189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -8483,7 +8483,7 @@
         <v>1.351000070571899</v>
       </c>
       <c r="C540">
-        <v>71.09191266822214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -8494,7 +8494,7 @@
         <v>1.969000101089478</v>
       </c>
       <c r="C541">
-        <v>56.50018647813048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -8505,7 +8505,7 @@
         <v>61.5550000667572</v>
       </c>
       <c r="C542">
-        <v>3152.097181719397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -8516,7 +8516,7 @@
         <v>1.211999893188477</v>
       </c>
       <c r="C543">
-        <v>4132.212823167407</v>
+        <v>1.941270600745204E-13</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -8527,7 +8527,7 @@
         <v>1.493000030517578</v>
       </c>
       <c r="C544">
-        <v>4693.826065570867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -8538,7 +8538,7 @@
         <v>1.190999984741211</v>
       </c>
       <c r="C545">
-        <v>3303.184512439428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -8549,7 +8549,7 @@
         <v>1.505000114440918</v>
       </c>
       <c r="C546">
-        <v>4806.845758123705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -8615,7 +8615,7 @@
         <v>33.43299984931946</v>
       </c>
       <c r="C552">
-        <v>1656.585498646786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -8626,7 +8626,7 @@
         <v>0.8650000095367432</v>
       </c>
       <c r="C553">
-        <v>2636.053697498312</v>
+        <v>6.443272977226712E-13</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -8637,7 +8637,7 @@
         <v>0.9700000286102295</v>
       </c>
       <c r="C554">
-        <v>3431.12995024275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -8648,7 +8648,7 @@
         <v>0.6979999542236328</v>
       </c>
       <c r="C555">
-        <v>2140.616366906155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -8659,7 +8659,7 @@
         <v>1.374000072479248</v>
       </c>
       <c r="C556">
-        <v>3308.014948138156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -8725,7 +8725,7 @@
         <v>0.6469998359680176</v>
       </c>
       <c r="C562">
-        <v>606.5999868980574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -8736,7 +8736,7 @@
         <v>0.8680000305175781</v>
       </c>
       <c r="C563">
-        <v>1629.087610621616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -8747,7 +8747,7 @@
         <v>0.8870000839233398</v>
       </c>
       <c r="C564">
-        <v>2906.996271721272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -8758,7 +8758,7 @@
         <v>0.3900001049041748</v>
       </c>
       <c r="C565">
-        <v>1536.256476682362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -8769,7 +8769,7 @@
         <v>0.9279999732971191</v>
       </c>
       <c r="C566">
-        <v>1988.033241473384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -8835,7 +8835,7 @@
         <v>2747.375</v>
       </c>
       <c r="C572">
-        <v>3151.727262342152</v>
+        <v>2.525972640252666E-09</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -8846,7 +8846,7 @@
         <v>429.3960001468658</v>
       </c>
       <c r="C573">
-        <v>4128.45584772075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -8857,7 +8857,7 @@
         <v>664.7769999504089</v>
       </c>
       <c r="C574">
-        <v>4689.073946298454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -8868,7 +8868,7 @@
         <v>665.0680000782013</v>
       </c>
       <c r="C575">
-        <v>3298.623981549778</v>
+        <v>7.471417960362657E-05</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -8879,7 +8879,7 @@
         <v>824.813000202179</v>
       </c>
       <c r="C576">
-        <v>4799.682665365181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -8890,7 +8890,7 @@
         <v>305.3470001220703</v>
       </c>
       <c r="C577">
-        <v>3180.255429749854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -8901,7 +8901,7 @@
         <v>148.7360000610352</v>
       </c>
       <c r="C578">
-        <v>4147.732500354555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -8912,7 +8912,7 @@
         <v>162.010999917984</v>
       </c>
       <c r="C579">
-        <v>4713.329439299371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -8923,7 +8923,7 @@
         <v>65.01900005340576</v>
       </c>
       <c r="C580">
-        <v>3317.184256745219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -8934,7 +8934,7 @@
         <v>257.210000038147</v>
       </c>
       <c r="C581">
-        <v>4802.709650158435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -8945,7 +8945,7 @@
         <v>999.5460000038147</v>
       </c>
       <c r="C582">
-        <v>1656.585498646786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -8956,7 +8956,7 @@
         <v>341.0060000419617</v>
       </c>
       <c r="C583">
-        <v>2631.113859274553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -8967,7 +8967,7 @@
         <v>451.672000169754</v>
       </c>
       <c r="C584">
-        <v>3189.073946298454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -8978,7 +8978,7 @@
         <v>300.6839997768402</v>
       </c>
       <c r="C585">
-        <v>1803.184512439428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -8989,7 +8989,7 @@
         <v>1172.808000087738</v>
       </c>
       <c r="C586">
-        <v>3301.737935889494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -9000,7 +9000,7 @@
         <v>144.4610002040863</v>
       </c>
       <c r="C587">
-        <v>1683.215863679025</v>
+        <v>5.951473095568915E-07</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -9011,7 +9011,7 @@
         <v>94.12599992752075</v>
       </c>
       <c r="C588">
-        <v>2650.037747006856</v>
+        <v>5.603742440331892E-08</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -9022,7 +9022,7 @@
         <v>105.558000087738</v>
       </c>
       <c r="C589">
-        <v>3213.329439299371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -9033,7 +9033,7 @@
         <v>52.00299978256226</v>
       </c>
       <c r="C590">
-        <v>1826.466722803229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -9044,7 +9044,7 @@
         <v>206.8299999237061</v>
       </c>
       <c r="C591">
-        <v>3307.157439078884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -9055,7 +9055,7 @@
         <v>12.48200011253357</v>
       </c>
       <c r="C592">
-        <v>263.2308667978156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -9066,7 +9066,7 @@
         <v>199.9299998283386</v>
       </c>
       <c r="C593">
-        <v>1139.902103595799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -9077,7 +9077,7 @@
         <v>311.0390000343323</v>
       </c>
       <c r="C594">
-        <v>1698.93238904969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -9088,7 +9088,7 @@
         <v>6.307999849319458</v>
       </c>
       <c r="C595">
-        <v>508.8647306623571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -9099,7 +9099,7 @@
         <v>300.1890001296997</v>
       </c>
       <c r="C596">
-        <v>1807.923585987597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -9110,7 +9110,7 @@
         <v>10.33699989318848</v>
       </c>
       <c r="C597">
-        <v>650.7068908748246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -9121,7 +9121,7 @@
         <v>43.19100022315979</v>
       </c>
       <c r="C598">
-        <v>1161.290306450021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -9132,7 +9132,7 @@
         <v>54.42000007629395</v>
       </c>
       <c r="C599">
-        <v>1728.201544541875</v>
+        <v>5.656243380570934E-10</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -9143,7 +9143,7 @@
         <v>1.587999820709229</v>
       </c>
       <c r="C600">
-        <v>737.1458544114662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -9154,7 +9154,7 @@
         <v>180.8289999961853</v>
       </c>
       <c r="C601">
-        <v>1822.758588371121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -9165,7 +9165,7 @@
         <v>3600.056999921799</v>
       </c>
       <c r="C602">
-        <v>3151.708453373515</v>
+        <v>0.6072942174043042</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -9176,7 +9176,7 @@
         <v>3600.131999969482</v>
       </c>
       <c r="C603">
-        <v>4128.463243361562</v>
+        <v>0.6431628416608323</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -9187,7 +9187,7 @@
         <v>3600.085000038147</v>
       </c>
       <c r="C604">
-        <v>4689.073635441529</v>
+        <v>0.5626739822334552</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -9198,7 +9198,7 @@
         <v>3600.102999925613</v>
       </c>
       <c r="C605">
-        <v>3298.623981549778</v>
+        <v>0.7591849547518651</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -9209,7 +9209,7 @@
         <v>3600.079999923706</v>
       </c>
       <c r="C606">
-        <v>4799.682665365181</v>
+        <v>0.604885511952728</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -9220,7 +9220,7 @@
         <v>3374.81500005722</v>
       </c>
       <c r="C607">
-        <v>3179.000268605284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -9231,7 +9231,7 @@
         <v>1886.032999992371</v>
       </c>
       <c r="C608">
-        <v>4147.707183648286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -9242,7 +9242,7 @@
         <v>1552.673000097275</v>
       </c>
       <c r="C609">
-        <v>4713.329439299372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -9253,7 +9253,7 @@
         <v>1543.335000038147</v>
       </c>
       <c r="C610">
-        <v>3315.529080171554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -9264,7 +9264,7 @@
         <v>3071.578999996185</v>
       </c>
       <c r="C611">
-        <v>4802.709650158435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -9275,7 +9275,7 @@
         <v>1539.713999986649</v>
       </c>
       <c r="C612">
-        <v>1656.585498646786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -9286,7 +9286,7 @@
         <v>1470.108999967575</v>
       </c>
       <c r="C613">
-        <v>2631.113859274553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -9297,7 +9297,7 @@
         <v>1956.507999897003</v>
       </c>
       <c r="C614">
-        <v>3189.073946298455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -9308,7 +9308,7 @@
         <v>1263.003000020981</v>
       </c>
       <c r="C615">
-        <v>1803.184512439428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -9319,7 +9319,7 @@
         <v>1623.56200003624</v>
       </c>
       <c r="C616">
-        <v>3300.243716636392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -9330,7 +9330,7 @@
         <v>1199.846999883652</v>
       </c>
       <c r="C617">
-        <v>1683.215863679025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -9341,7 +9341,7 @@
         <v>964.6779999732971</v>
       </c>
       <c r="C618">
-        <v>2647.705419235779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -9352,7 +9352,7 @@
         <v>1316.459000110626</v>
       </c>
       <c r="C619">
-        <v>3213.329439299371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -9363,7 +9363,7 @@
         <v>597.3309998512268</v>
       </c>
       <c r="C620">
-        <v>1825.750648562987</v>
+        <v>4.455867141417358E-09</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -9374,7 +9374,7 @@
         <v>851.8050000667572</v>
       </c>
       <c r="C621">
-        <v>3303.270701429646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -9385,7 +9385,7 @@
         <v>23.19300007820129</v>
       </c>
       <c r="C622">
-        <v>263.2308667978156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -9396,7 +9396,7 @@
         <v>422.1390001773834</v>
       </c>
       <c r="C623">
-        <v>1139.908179323797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -9407,7 +9407,7 @@
         <v>1175.788000106812</v>
       </c>
       <c r="C624">
-        <v>1693.824460412948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -9418,7 +9418,7 @@
         <v>11.17500019073486</v>
       </c>
       <c r="C625">
-        <v>318.6552968007342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -9429,7 +9429,7 @@
         <v>970.9060001373291</v>
       </c>
       <c r="C626">
-        <v>1808.033241473384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -9440,7 +9440,7 @@
         <v>15.78099989891052</v>
       </c>
       <c r="C627">
-        <v>292.4422114138034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -9451,7 +9451,7 @@
         <v>393.7889997959137</v>
       </c>
       <c r="C628">
-        <v>1155.221933582396</v>
+        <v>8.656352128932362E-07</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -9462,7 +9462,7 @@
         <v>582.0869998931885</v>
       </c>
       <c r="C629">
-        <v>1722.923766043104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -9473,7 +9473,7 @@
         <v>23.61299991607666</v>
       </c>
       <c r="C630">
-        <v>407.4786001514191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -9484,7 +9484,7 @@
         <v>526.2849998474121</v>
       </c>
       <c r="C631">
-        <v>1819.918208452129</v>
+        <v>5.094401467623958E-09</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -9495,7 +9495,7 @@
         <v>129.5659999847412</v>
       </c>
       <c r="C632">
-        <v>1663.420294603098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -9506,7 +9506,7 @@
         <v>7.698000192642212</v>
       </c>
       <c r="C633">
-        <v>2643.317236918221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -9517,7 +9517,7 @@
         <v>7.394999980926514</v>
       </c>
       <c r="C634">
-        <v>3203.194038069537</v>
+        <v>2.964977553775538E-12</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -9528,7 +9528,7 @@
         <v>4.20199990272522</v>
       </c>
       <c r="C635">
-        <v>1961.177683860804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -9539,7 +9539,7 @@
         <v>5.359999895095825</v>
       </c>
       <c r="C636">
-        <v>3318.861419126812</v>
+        <v>1.455142669887332E-13</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -9605,7 +9605,7 @@
         <v>0.8350000381469727</v>
       </c>
       <c r="C642">
-        <v>338.4202946030977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -9616,7 +9616,7 @@
         <v>0.9529998302459717</v>
       </c>
       <c r="C643">
-        <v>793.3172369182207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -9627,7 +9627,7 @@
         <v>1.968000173568726</v>
       </c>
       <c r="C644">
-        <v>1438.194276025362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -9638,7 +9638,7 @@
         <v>0.3940000534057617</v>
       </c>
       <c r="C645">
-        <v>1047.070407401301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -9649,7 +9649,7 @@
         <v>2.460999965667725</v>
       </c>
       <c r="C646">
-        <v>1319.748180314763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -9715,7 +9715,7 @@
         <v>0.2300000190734863</v>
       </c>
       <c r="C652">
-        <v>158.4202946030977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -9726,7 +9726,7 @@
         <v>0.4120001792907715</v>
       </c>
       <c r="C653">
-        <v>543.3172369182207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -9737,7 +9737,7 @@
         <v>0.4689998626708984</v>
       </c>
       <c r="C654">
-        <v>753.1942760253623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -9748,7 +9748,7 @@
         <v>0.3610000610351562</v>
       </c>
       <c r="C655">
-        <v>1042.070407401301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -9759,7 +9759,7 @@
         <v>0.2639999389648438</v>
       </c>
       <c r="C656">
-        <v>423.8614191268113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -9825,7 +9825,7 @@
         <v>2172.659999847412</v>
       </c>
       <c r="C662">
-        <v>1662.289172852144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -9836,7 +9836,7 @@
         <v>945.8389999866486</v>
       </c>
       <c r="C663">
-        <v>2643.317236918221</v>
+        <v>3.78310394887672E-07</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -9847,7 +9847,7 @@
         <v>3600.094000101089</v>
       </c>
       <c r="C664">
-        <v>3202.999952471959</v>
+        <v>0.3066247499198705</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -9858,7 +9858,7 @@
         <v>1626.698999881744</v>
       </c>
       <c r="C665">
-        <v>1812.070407401301</v>
+        <v>1.278876552373326E-07</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -9869,7 +9869,7 @@
         <v>2359.34900021553</v>
       </c>
       <c r="C666">
-        <v>3317.19294498689</v>
+        <v>3.27488800382396E-07</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -9880,7 +9880,7 @@
         <v>479.2810001373291</v>
       </c>
       <c r="C667">
-        <v>1706.356616952061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -9891,7 +9891,7 @@
         <v>225.066999912262</v>
       </c>
       <c r="C668">
-        <v>2673.249388500321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -9902,7 +9902,7 @@
         <v>314.1419999599457</v>
       </c>
       <c r="C669">
-        <v>3238.130365890581</v>
+        <v>3.08818689708173E-07</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -9913,7 +9913,7 @@
         <v>74.92799997329712</v>
       </c>
       <c r="C670">
-        <v>1839.617003080025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -9924,7 +9924,7 @@
         <v>619.6900000572205</v>
       </c>
       <c r="C671">
-        <v>3331.607477260568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -9935,7 +9935,7 @@
         <v>7.825000047683716</v>
       </c>
       <c r="C672">
-        <v>117.761810890589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -9946,7 +9946,7 @@
         <v>98.89800000190735</v>
       </c>
       <c r="C673">
-        <v>651.6826374229856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -9957,7 +9957,7 @@
         <v>359.970999956131</v>
       </c>
       <c r="C674">
-        <v>1203.194276025362</v>
+        <v>1.22169764336027E-07</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -9968,7 +9968,7 @@
         <v>2.598000049591064</v>
       </c>
       <c r="C675">
-        <v>166.1776805511182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -9979,7 +9979,7 @@
         <v>321.9070000648499</v>
       </c>
       <c r="C676">
-        <v>1317.733510903363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -9990,7 +9990,7 @@
         <v>6.023999929428101</v>
       </c>
       <c r="C677">
-        <v>452.1455743990739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -10001,7 +10001,7 @@
         <v>13.66999983787537</v>
       </c>
       <c r="C678">
-        <v>924.5119923313651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -10012,7 +10012,7 @@
         <v>58.38600015640259</v>
       </c>
       <c r="C679">
-        <v>1238.130365890582</v>
+        <v>5.683743367287657E-13</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -10023,7 +10023,7 @@
         <v>2.503000020980835</v>
       </c>
       <c r="C680">
-        <v>661.667577805327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -10034,7 +10034,7 @@
         <v>157.0369999408722</v>
       </c>
       <c r="C681">
-        <v>1332.16852853178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -10045,7 +10045,7 @@
         <v>5.092000007629395</v>
       </c>
       <c r="C682">
-        <v>32.2891728521436</v>
+        <v>7.953374736304053E-05</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -10056,7 +10056,7 @@
         <v>1.14300012588501</v>
       </c>
       <c r="C683">
-        <v>43.31723691822071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -10067,7 +10067,7 @@
         <v>3.052000045776367</v>
       </c>
       <c r="C684">
-        <v>174.1559026080741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -10078,7 +10078,7 @@
         <v>0.7460000514984131</v>
       </c>
       <c r="C685">
-        <v>42.07040740130121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -10089,7 +10089,7 @@
         <v>1.278000116348267</v>
       </c>
       <c r="C686">
-        <v>78.86141912681133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -10100,7 +10100,7 @@
         <v>2.769999980926514</v>
       </c>
       <c r="C687">
-        <v>442.3569516866175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -10111,7 +10111,7 @@
         <v>0.6610000133514404</v>
       </c>
       <c r="C688">
-        <v>560.8560832411921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -10122,7 +10122,7 @@
         <v>1.960999965667725</v>
       </c>
       <c r="C689">
-        <v>453.1303658905815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -10133,7 +10133,7 @@
         <v>0.940000057220459</v>
       </c>
       <c r="C690">
-        <v>565.2726292979114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -10144,7 +10144,7 @@
         <v>1.036999940872192</v>
       </c>
       <c r="C691">
-        <v>188.2759514004893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -10155,7 +10155,7 @@
         <v>3370.513000011444</v>
       </c>
       <c r="C692">
-        <v>1662.285372870886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -10166,7 +10166,7 @@
         <v>3600.093999862671</v>
       </c>
       <c r="C693">
-        <v>2643.316236927458</v>
+        <v>0.5916167769046617</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -10177,7 +10177,7 @@
         <v>3516.574999809265</v>
       </c>
       <c r="C694">
-        <v>3203.194276025362</v>
+        <v>5.524303216088017E-07</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -10188,7 +10188,7 @@
         <v>2925.93799996376</v>
       </c>
       <c r="C695">
-        <v>1812.067731327442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -10199,7 +10199,7 @@
         <v>3600.081000089645</v>
       </c>
       <c r="C696">
-        <v>3317.19294498689</v>
+        <v>0.7522914324648468</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -10210,7 +10210,7 @@
         <v>3600.098000049591</v>
       </c>
       <c r="C697">
-        <v>1701.665292517803</v>
+        <v>0.5309747225185922</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -10221,7 +10221,7 @@
         <v>3600.106999874115</v>
       </c>
       <c r="C698">
-        <v>2670.919630542873</v>
+        <v>0.1969186323245887</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -10232,7 +10232,7 @@
         <v>3600.039999961853</v>
       </c>
       <c r="C699">
-        <v>3238.125940552045</v>
+        <v>0.6262689378352843</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -10243,7 +10243,7 @@
         <v>1846.505000114441</v>
       </c>
       <c r="C700">
-        <v>1839.610968503996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -10254,7 +10254,7 @@
         <v>3600.069000005722</v>
       </c>
       <c r="C701">
-        <v>3331.594976301697</v>
+        <v>0.5957603281575123</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -10265,7 +10265,7 @@
         <v>21.75</v>
       </c>
       <c r="C702">
-        <v>117.761810890589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -10276,7 +10276,7 @@
         <v>149.0179998874664</v>
       </c>
       <c r="C703">
-        <v>651.0535217768988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -10287,7 +10287,7 @@
         <v>1318.067000150681</v>
       </c>
       <c r="C704">
-        <v>1203.176019856568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -10298,7 +10298,7 @@
         <v>11.32599997520447</v>
       </c>
       <c r="C705">
-        <v>166.1776838608037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -10309,7 +10309,7 @@
         <v>1818.123999834061</v>
       </c>
       <c r="C706">
-        <v>1317.753996258101</v>
+        <v>7.163963254155584E-07</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -10320,7 +10320,7 @@
         <v>7.26200008392334</v>
       </c>
       <c r="C707">
-        <v>157.1455743990739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -10331,7 +10331,7 @@
         <v>149.8510000705719</v>
       </c>
       <c r="C708">
-        <v>678.7019050609738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -10342,7 +10342,7 @@
         <v>717.5150001049042</v>
       </c>
       <c r="C709">
-        <v>1238.123313337301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -10353,7 +10353,7 @@
         <v>7.773000001907349</v>
       </c>
       <c r="C710">
-        <v>193.7242795395279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -10364,7 +10364,7 @@
         <v>850.5989999771118</v>
       </c>
       <c r="C711">
-        <v>1332.149024631618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -10375,7 +10375,7 @@
         <v>9.646000146865845</v>
       </c>
       <c r="C712">
-        <v>32.2891728521436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -10386,7 +10386,7 @@
         <v>6.180999994277954</v>
       </c>
       <c r="C713">
-        <v>43.31723691822072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -10397,7 +10397,7 @@
         <v>4.723999977111816</v>
       </c>
       <c r="C714">
-        <v>81.99477501626002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -10408,7 +10408,7 @@
         <v>4.209000110626221</v>
       </c>
       <c r="C715">
-        <v>42.07040740130122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -10419,7 +10419,7 @@
         <v>4.130999803543091</v>
       </c>
       <c r="C716">
-        <v>50.66057498627342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -10430,7 +10430,7 @@
         <v>7.440999984741211</v>
       </c>
       <c r="C717">
-        <v>71.67293636062847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -10441,7 +10441,7 @@
         <v>5.330000162124634</v>
       </c>
       <c r="C718">
-        <v>70.91963054287289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -10452,7 +10452,7 @@
         <v>4.719000101089478</v>
       </c>
       <c r="C719">
-        <v>116.9308648814791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -10463,7 +10463,7 @@
         <v>3.381999969482422</v>
       </c>
       <c r="C720">
-        <v>68.46439139194628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -10474,7 +10474,7 @@
         <v>3.242000102996826</v>
       </c>
       <c r="C721">
-        <v>74.76228398275673</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
